--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.16</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.69</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.69</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.80</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.82</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.12</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6963</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1433,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1555,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1571,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.15</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="5">
@@ -1555,14 +1726,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1571,14 +1742,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
@@ -1587,13 +1758,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2958</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1769</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0869</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -688,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3333</t>
+          <t>0.8127</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -726,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1310</t>
+          <t>0.1409</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -764,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.0914</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,22 +836,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>96.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6319</t>
+          <t>0.6963</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -896,26 +874,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1134</t>
+          <t>0.2744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -934,26 +912,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0761</t>
+          <t>0.1829</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +966,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1028,26 +1006,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5487</t>
+          <t>0.5822</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1071,17 +1049,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3155</t>
+          <t>0.3182</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1104,22 +1082,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2181</t>
+          <t>0.2153</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1158,7 +1136,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1198,26 +1176,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.10</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5822</t>
+          <t>0.5487</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1241,17 +1219,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3182</t>
+          <t>0.3155</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1274,22 +1252,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2153</t>
+          <t>0.2181</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1328,7 +1306,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1368,22 +1346,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6963</t>
+          <t>0.6319</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1406,26 +1384,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2744</t>
+          <t>0.1134</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1444,26 +1422,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1829</t>
+          <t>0.0761</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1476,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1538,26 +1516,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8127</t>
+          <t>0.3333</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1576,26 +1554,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1409</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1614,26 +1592,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1647,144 +1625,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.04</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.15</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5600000000000001</v>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8127</t>
+          <t>0.7508</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1409</t>
+          <t>0.0825</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.0447</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -836,22 +853,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6963</t>
+          <t>0.8127</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -874,26 +891,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2744</t>
+          <t>0.1409</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -912,26 +929,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1829</t>
+          <t>0.0914</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1006,22 +1023,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.10</t>
+          <t>96.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5822</t>
+          <t>0.6963</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1044,26 +1061,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3182</t>
+          <t>0.2744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1082,26 +1099,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2153</t>
+          <t>0.1829</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1153,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1176,26 +1193,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5487</t>
+          <t>0.5822</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1219,17 +1236,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3155</t>
+          <t>0.3182</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1252,22 +1269,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2181</t>
+          <t>0.2153</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1346,26 +1363,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6319</t>
+          <t>0.5487</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1384,26 +1401,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1134</t>
+          <t>0.3155</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1422,26 +1439,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0761</t>
+          <t>0.2181</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1521,21 +1538,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3333</t>
+          <t>0.6319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1554,26 +1571,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1310</t>
+          <t>0.1134</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1592,26 +1609,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.0761</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1620,6 +1637,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02611-国泰君安.xlsx
+++ b/数据整理/stocks/港股/02611-国泰君安.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +870,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.33</t>
+          <t>97.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7508</t>
+          <t>0.7580</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +908,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>79.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0825</t>
+          <t>0.0729</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +946,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>79.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0447</t>
+          <t>0.0529</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -853,26 +1040,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8127</t>
+          <t>0.7508</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -881,36 +1068,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1409</t>
+          <t>0.0825</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -919,36 +1106,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.0447</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1023,22 +1210,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6963</t>
+          <t>0.8127</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1061,26 +1248,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2744</t>
+          <t>0.1409</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1099,26 +1286,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1829</t>
+          <t>0.0914</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1193,22 +1380,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.10</t>
+          <t>96.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5822</t>
+          <t>0.6963</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1231,26 +1418,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3182</t>
+          <t>0.2744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1269,26 +1456,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2153</t>
+          <t>0.1829</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1510,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1363,26 +1550,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5487</t>
+          <t>0.5822</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1406,17 +1593,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3155</t>
+          <t>0.3182</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1439,22 +1626,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2181</t>
+          <t>0.2153</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1533,26 +1720,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6319</t>
+          <t>0.5487</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1571,26 +1758,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1134</t>
+          <t>0.3155</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1609,26 +1796,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0761</t>
+          <t>0.2181</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1708,21 +1895,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3333</t>
+          <t>0.6319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1741,26 +1928,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1310</t>
+          <t>0.1134</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1779,26 +1966,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.0761</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1814,51 +2001,51 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1873,22 +2060,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.18</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2958</t>
+          <t>0.3333</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1896,7 +2083,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1911,30 +2098,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1769</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1954,24 +2141,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0869</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>